--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_80.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_80.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,672 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_35</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_21</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1285714285714286</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Bb:7', 'Eb:7', 'Eb:7'], ['Bb:7', 'Bb:7', 'Bb:7', 'Eb:7'], ['F:7', 'Bb:7', 'Bb:7', 'Bb:7']]</t>
-        </is>
+          <t>jaah_64</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_4</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08542372881355932</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Ab:7', 'Db:7', 'Db:7'], ['Ab:7', 'Ab:7', 'Ab:7', 'Db:7'], ['Eb:7', 'Ab:7', 'Ab:7', 'Ab:7']]</t>
+          <t>[['D:min7', 'G:7', 'C:maj7'], ['A:min7', 'D:7', 'G:7'], ['A:7', 'D:7', 'G:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(17.28, 28.83), (40.35, 52.21), (37.47, 49.16)]</t>
+          <t>[['Bb:min7', 'Eb:7', 'Ab:maj7'], ['F:min7', 'Bb:7', 'Eb:7'], ['F:7', 'Bb:7', 'Eb:7']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(18.52, 22.68), (17.48, 21.64), (32.39, 36.34)]</t>
+          <t>[('0:00:07.660000', '0:00:11.020000'), ('0:00:24.030000', '0:00:27.300000'), ('0:00:56.720000', '0:01:02.210000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:7JXfQmzQwnGvbAVnV9ODpn</t>
+          <t>[('0:01:46.710000', '0:01:52.340000'), ('0:01:39.160000', '0:01:44.820000'), ('0:00:42.100000', '0:00:48.620000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3736263736263736</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.14, 9.88)]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(46.9, 59.1)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:35.140000', '0:00:39.900000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:32.440000', '0:00:34.800000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1483870967741935</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_14</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07045454545454546</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>[['C/G', 'G:7', 'C'], ['C', 'C/G', 'G:7']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['Ab', 'Eb:7', 'Ab'], ['Ab', 'Ab', 'Eb:7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(13.42, 20.16)]</t>
+          <t>[('0:03:56.400000', '0:03:59.980000'), ('0:03:55.320000', '0:03:57.580000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:06.930000', '0:01:12.560000'), ('0:00:11.930000', '0:00:17.400000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1880877742946708</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C'], ['A:min', 'E:maj/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2373626373626374</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.34, 2.34), (13.34, 16.08)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(18.42, 24.34), (9.24, 16.26)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:01:04.300000', '0:01:05.720000'), ('0:01:02.480000', '0:01:04.920000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:10.980000', '0:01:20.440000'), ('0:00:18.120000', '0:00:24.540000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09980620155038759</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5052631578947369</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min', 'C:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(13.82, 40.02)]</t>
+          <t>[['G/5', 'C/9', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(22.08, 29.36)]</t>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:00.727609', '0:00:10.723990')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_179</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1847507331378299</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb/2', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_92</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2077922077922078</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G/3', 'G/#4', 'D']]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(40.219, 45.818)]</t>
+          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(56.324374, 59.031496)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:44.160000', '0:00:48.160000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:13.560000', '0:00:16.280000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.606060606060606</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(13.74, 16.3)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(83.2, 91.14)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:12.272131', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_100</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(32.38, 46.68)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(98.7, 118.8)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:00.260000', '0:00:07.340000'), ('0:00:52.740000', '0:01:00.860000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D', 'D/5']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G', 'G']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(12.241493, 17.965212)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(75.705034, 80.407074)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>[('0:01:06.920000', '0:01:08.180000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:16.240000', '0:00:18.880000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:maj/B', 'C:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(16.24, 19.08)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(85.58, 94.24)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2388758782201405</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(49.56, 55.72)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(63.1, 64.5)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:26.980000', '0:01:51.200000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B', 'A', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'G', 'A']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(33.344378, 38.139299)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(45.209, 50.686)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:02.060000', '0:00:23.220000'), ('0:00:57.580000', '0:01:19.360000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:01.820000', '0:00:20.520000'), ('0:00:55.140000', '0:01:15.900000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1108870967741935</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E', 'A'], ['D', 'B:min', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'D', 'G'], ['C/7', 'A:min', 'D']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(23.795215, 29.925283), (15.447641, 23.795215)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(30.378072, 35.532902), (29.495714, 32.084739)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1441647597254004</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'F']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(2.676666, 13.717755)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(55.935192, 62.15814)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+          <t>[('0:02:28.100000', '0:02:32.600000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:02:40.020000', '0:02:44.860000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07146401985111663</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(90.6, 101.18)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:13.520000', '0:00:51.460000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_61</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2385964912280702</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min/5', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(8.3, 14.36)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(23.632675, 27.452358)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
